--- a/_site/Data/Remote LearningModule.xlsx
+++ b/_site/Data/Remote LearningModule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E16FD5-5ECC-1E45-B52A-AC3FE650F363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7B9E7-2045-BD4A-AB84-C0D56BACFA56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="24160" windowHeight="15620" xr2:uid="{923D818C-8046-D64A-B4CD-453618303931}"/>
   </bookViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF852DDC-C474-A841-8ECA-218F468A5CA5}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
